--- a/satd_issue_dataset_Kotlin.xlsx
+++ b/satd_issue_dataset_Kotlin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{5D7CABBC-0EFD-B34D-AB20-A58C627AF25D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{F7DBC66E-4BDD-2848-8668-F1FE9160D3A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14320" yWindow="-28300" windowWidth="33720" windowHeight="28300"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="343">
   <si>
     <t>Issue</t>
   </si>
@@ -1082,6 +1082,172 @@
   <si>
     <t>[Content]気象コードの再利用を改善する 
 [Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]PressureChart は SimpleLineChart を使用する必要がある
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Duration.formatHM を削除
+[Class]不要な機能の削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]LocalTime.toDisplayFormat と LocalDateTime.toDisplayFormat を削除
+[Class]不要な機能の削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]天文学の詳細に戦略パターンを使用する
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ソルを使う
+[Class]ツールの使用</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]雲分類器から雲マスクを抽出する
+[Class]機能の抽出</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]表示されたパスのみを読み込む
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ナビゲーションとバックトラックのパッケージをマージする
+[Class]機能の統合</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]マスキングにキャンバスのclipPathを使用
+[Class]ツールの使用</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]パス ポイントの一括挿入/更新/削除
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ロック可能なスクロールビューをアンドロメダに移動
+[Class]機能の移行</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]QRボトムシートを抽出
+[Class]機能の抽出</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ショートカットの単体テストを作成する
+[Class]テストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Metrics.kt のテストを書く
+[Class]テストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]コレクションを展開/折りたたむときのホーム画面のバグ動作
+[Class]バグの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]アプリのバックグラウンド時に UI テスト検索バーのリセットを追加
+[Class]テストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]トップ ツールバーの影がない
+[Class]UIの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ホーム画面のURL欄下に「＋」のボタン押下アニメーションが表示される
+[Class]UIの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]コレクションのパディング
+[Class]UIの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ETP テキストが正しく配置されない
+[Class]UIの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]タブとコレクションの異なる影
+[Class]UIの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]コレクションの影に関する小さな視覚的な問題
+[Class]UIの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]スタイルガイドの一部として色を更新
+[Class]UIの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]トップ サイトは、5 ではなく 4 つの要素/サイト スペースのみを使用する
+[Class]UIの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]最下部の 3 ドット コンテキスト メニュー項目のタッチ領域が小さすぎる
+[Class]バグの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>アイコンを押しても反応しない
+UIの問題ではなく実装の問題なのでDesign</t>
+    <rPh sb="5" eb="6">
+      <t xml:space="preserve">オシテモ </t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">ハンオウ </t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t xml:space="preserve">モンダイデハナク </t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t xml:space="preserve">ジッソウノモンダイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]新しいタブ ボタンのタッチ アニメーションが正しくない
+[Class]UIの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]UI テストの失敗 editBookmarkTest
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]UI テストの失敗 navigateBookmarksFoldersTest
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]UI テストの失敗 createBookmarkFolderTest
+[Class]テストの改善</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1682,7 +1848,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1691,6 +1857,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2049,8 +2218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2786,8 +2955,11 @@
       <c r="B51" t="s">
         <v>51</v>
       </c>
+      <c r="C51" t="s">
+        <v>257</v>
+      </c>
       <c r="F51" s="2" t="s">
-        <v>255</v>
+        <v>312</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="42">
@@ -2797,19 +2969,25 @@
       <c r="B52" t="s">
         <v>52</v>
       </c>
+      <c r="C52" t="s">
+        <v>257</v>
+      </c>
       <c r="F52" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="42">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="63">
       <c r="A53">
         <v>894</v>
       </c>
       <c r="B53" t="s">
         <v>53</v>
       </c>
+      <c r="C53" t="s">
+        <v>257</v>
+      </c>
       <c r="F53" s="2" t="s">
-        <v>255</v>
+        <v>314</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="42">
@@ -2819,8 +2997,14 @@
       <c r="B54" t="s">
         <v>54</v>
       </c>
+      <c r="C54" t="s">
+        <v>257</v>
+      </c>
+      <c r="E54" t="s">
+        <v>317</v>
+      </c>
       <c r="F54" s="2" t="s">
-        <v>255</v>
+        <v>315</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="42">
@@ -2830,8 +3014,17 @@
       <c r="B55" t="s">
         <v>55</v>
       </c>
+      <c r="C55" t="s">
+        <v>264</v>
+      </c>
+      <c r="D55" t="s">
+        <v>257</v>
+      </c>
+      <c r="E55" t="s">
+        <v>317</v>
+      </c>
       <c r="F55" s="2" t="s">
-        <v>255</v>
+        <v>316</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="42">
@@ -2841,8 +3034,11 @@
       <c r="B56" t="s">
         <v>56</v>
       </c>
+      <c r="C56" t="s">
+        <v>257</v>
+      </c>
       <c r="F56" s="2" t="s">
-        <v>255</v>
+        <v>318</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="42">
@@ -2852,8 +3048,11 @@
       <c r="B57" t="s">
         <v>57</v>
       </c>
+      <c r="C57" t="s">
+        <v>257</v>
+      </c>
       <c r="F57" s="2" t="s">
-        <v>255</v>
+        <v>319</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="42">
@@ -2863,8 +3062,11 @@
       <c r="B58" t="s">
         <v>58</v>
       </c>
+      <c r="C58" t="s">
+        <v>257</v>
+      </c>
       <c r="F58" s="2" t="s">
-        <v>255</v>
+        <v>320</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="42">
@@ -2874,8 +3076,11 @@
       <c r="B59" t="s">
         <v>59</v>
       </c>
+      <c r="C59" t="s">
+        <v>264</v>
+      </c>
       <c r="F59" s="2" t="s">
-        <v>255</v>
+        <v>321</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="42">
@@ -2885,8 +3090,11 @@
       <c r="B60" t="s">
         <v>60</v>
       </c>
+      <c r="C60" t="s">
+        <v>257</v>
+      </c>
       <c r="F60" s="2" t="s">
-        <v>255</v>
+        <v>310</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="42">
@@ -2896,8 +3104,11 @@
       <c r="B61" t="s">
         <v>61</v>
       </c>
+      <c r="C61" t="s">
+        <v>257</v>
+      </c>
       <c r="F61" s="2" t="s">
-        <v>255</v>
+        <v>322</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="42">
@@ -2907,8 +3118,11 @@
       <c r="B62" t="s">
         <v>62</v>
       </c>
+      <c r="C62" t="s">
+        <v>257</v>
+      </c>
       <c r="F62" s="2" t="s">
-        <v>255</v>
+        <v>323</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="42">
@@ -2918,8 +3132,11 @@
       <c r="B63" t="s">
         <v>63</v>
       </c>
+      <c r="C63" t="s">
+        <v>257</v>
+      </c>
       <c r="F63" s="2" t="s">
-        <v>255</v>
+        <v>324</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="42">
@@ -2929,8 +3146,11 @@
       <c r="B64" t="s">
         <v>64</v>
       </c>
+      <c r="C64" t="s">
+        <v>266</v>
+      </c>
       <c r="F64" s="2" t="s">
-        <v>255</v>
+        <v>325</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="42">
@@ -2940,8 +3160,11 @@
       <c r="B65" t="s">
         <v>65</v>
       </c>
+      <c r="C65" t="s">
+        <v>266</v>
+      </c>
       <c r="F65" s="2" t="s">
-        <v>255</v>
+        <v>326</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="42">
@@ -2951,19 +3174,25 @@
       <c r="B66" t="s">
         <v>66</v>
       </c>
+      <c r="C66" t="s">
+        <v>257</v>
+      </c>
       <c r="F66" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="42">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="63">
       <c r="A67">
         <v>3143</v>
       </c>
       <c r="B67" t="s">
         <v>67</v>
       </c>
+      <c r="C67" t="s">
+        <v>266</v>
+      </c>
       <c r="F67" s="2" t="s">
-        <v>255</v>
+        <v>328</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="42">
@@ -2973,19 +3202,25 @@
       <c r="B68" t="s">
         <v>68</v>
       </c>
+      <c r="C68" t="s">
+        <v>270</v>
+      </c>
       <c r="F68" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="42">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="63">
       <c r="A69">
         <v>8355</v>
       </c>
       <c r="B69" t="s">
         <v>69</v>
       </c>
+      <c r="C69" t="s">
+        <v>270</v>
+      </c>
       <c r="F69" s="2" t="s">
-        <v>255</v>
+        <v>330</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="42">
@@ -2995,8 +3230,11 @@
       <c r="B70" t="s">
         <v>70</v>
       </c>
+      <c r="C70" t="s">
+        <v>270</v>
+      </c>
       <c r="F70" s="2" t="s">
-        <v>255</v>
+        <v>331</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="42">
@@ -3006,8 +3244,11 @@
       <c r="B71" t="s">
         <v>71</v>
       </c>
+      <c r="C71" t="s">
+        <v>270</v>
+      </c>
       <c r="F71" s="2" t="s">
-        <v>255</v>
+        <v>332</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="42">
@@ -3017,8 +3258,11 @@
       <c r="B72" t="s">
         <v>72</v>
       </c>
+      <c r="C72" t="s">
+        <v>270</v>
+      </c>
       <c r="F72" s="2" t="s">
-        <v>255</v>
+        <v>333</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="42">
@@ -3028,8 +3272,11 @@
       <c r="B73" t="s">
         <v>73</v>
       </c>
+      <c r="C73" t="s">
+        <v>270</v>
+      </c>
       <c r="F73" s="2" t="s">
-        <v>255</v>
+        <v>334</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="42">
@@ -3039,30 +3286,42 @@
       <c r="B74" t="s">
         <v>74</v>
       </c>
+      <c r="C74" t="s">
+        <v>270</v>
+      </c>
       <c r="F74" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="42">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="63">
       <c r="A75">
         <v>10281</v>
       </c>
       <c r="B75" t="s">
         <v>75</v>
       </c>
+      <c r="C75" t="s">
+        <v>270</v>
+      </c>
       <c r="F75" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="42">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="63">
       <c r="A76">
         <v>10359</v>
       </c>
       <c r="B76" t="s">
         <v>76</v>
       </c>
+      <c r="C76" t="s">
+        <v>270</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>338</v>
+      </c>
       <c r="F76" s="2" t="s">
-        <v>255</v>
+        <v>337</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="42">
@@ -3072,8 +3331,11 @@
       <c r="B77" t="s">
         <v>77</v>
       </c>
+      <c r="C77" t="s">
+        <v>270</v>
+      </c>
       <c r="F77" s="2" t="s">
-        <v>255</v>
+        <v>339</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="42">
@@ -3083,8 +3345,11 @@
       <c r="B78" t="s">
         <v>78</v>
       </c>
+      <c r="C78" t="s">
+        <v>266</v>
+      </c>
       <c r="F78" s="2" t="s">
-        <v>255</v>
+        <v>340</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="42">
@@ -3094,8 +3359,11 @@
       <c r="B79" t="s">
         <v>79</v>
       </c>
+      <c r="C79" t="s">
+        <v>266</v>
+      </c>
       <c r="F79" s="2" t="s">
-        <v>255</v>
+        <v>341</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="42">
@@ -3105,8 +3373,11 @@
       <c r="B80" t="s">
         <v>80</v>
       </c>
+      <c r="C80" t="s">
+        <v>266</v>
+      </c>
       <c r="F80" s="2" t="s">
-        <v>255</v>
+        <v>342</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="42">

--- a/satd_issue_dataset_Kotlin.xlsx
+++ b/satd_issue_dataset_Kotlin.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{F7DBC66E-4BDD-2848-8668-F1FE9160D3A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD2AEAB-F068-B14D-8A5A-134E6553CEE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14320" yWindow="-28300" windowWidth="33720" windowHeight="28300"/>
+    <workbookView xWindow="14320" yWindow="-28300" windowWidth="33720" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="satd_issue_dataset_Kotlin" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="364">
   <si>
     <t>Issue</t>
   </si>
@@ -1250,11 +1263,127 @@
 [Class]テストの改善</t>
     <phoneticPr fontId="18"/>
   </si>
+  <si>
+    <t>[Content]テスト失敗 ShareControllerTest#handleShareToApp
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]既存のセッションを選択するとSettingsPrivacyTest テストに失敗する
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Lottie のメイン スレッド パフォーマンスへの影響を調査する
+[Class]パフォーマンスの改善，不要な機能の削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]タブの数をデフォルトで「1」として表示し、「0」を削除すると、かなり混乱します
+[Class]UI，機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Webextensions をインストールした起動テスト
+[Class]テストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]設定 -&gt; プライベート ブラウジングを 72 dp キーラインに合わせる
+[Class]UIの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]設定 -&gt; サイトの権限 -&gt; サブページを 72 dp のキーラインに合わせる
+[Class]UIの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]特定のテキスト選択でコントラストが悪い
+[Class]UIの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ラジオボタンとチェックボックスが揃っていない
+[Class]UIの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]コントローラー内の Context と Activity の使用を整理する
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]FenixSearchEngineProvider のリファクタリング
+[Class]リファクタリング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Resources#updateConfiguration を廃止されていないメソッドに置き換える
+[Class]メソッドの置き換え</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]org.mozilla.fenix.ui.NavigationToolbarTest での goBackTest の失敗
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ネットワーク接続が原因で同期が失敗した場合、ユーザーに直面するエラーはありません
+[Class]バグの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]URL が正確に収まる場合、URL バーの右側にパディングがない
+[Class]UIの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]search_shortcuts.selected メトリクスにデータ レビューがありません
+[Class]レビュー</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Other</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]BackgroundServicesTest をリファクタリングして個別の単体テストを使用する
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]コレクション保存済みのスナックバーを FAB の上に表示する
+[Class]UIの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]個人データを消去するときにアイコンを消去する
+[Class]機能の改善</t>
+    <rPh sb="39" eb="41">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]断続的なデバッグ (T) の失敗 'アイテムの更新を保存するときに、ログインの詳細ビューに移動します
+[Class]機能の修正</t>
+    <rPh sb="67" eb="69">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20">
     <font>
       <sz val="12"/>
@@ -2215,11 +2344,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E80" sqref="E80"/>
+    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F101" sqref="F101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2227,7 +2356,7 @@
     <col min="2" max="2" width="62.140625" customWidth="1"/>
     <col min="3" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="38.7109375" customWidth="1"/>
-    <col min="6" max="6" width="59.28515625" customWidth="1"/>
+    <col min="6" max="6" width="69.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -3387,8 +3516,11 @@
       <c r="B81" t="s">
         <v>81</v>
       </c>
+      <c r="C81" t="s">
+        <v>266</v>
+      </c>
       <c r="F81" s="2" t="s">
-        <v>255</v>
+        <v>343</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="42">
@@ -3398,8 +3530,11 @@
       <c r="B82" t="s">
         <v>82</v>
       </c>
+      <c r="C82" t="s">
+        <v>266</v>
+      </c>
       <c r="F82" s="2" t="s">
-        <v>255</v>
+        <v>344</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="42">
@@ -3409,19 +3544,31 @@
       <c r="B83" t="s">
         <v>83</v>
       </c>
+      <c r="C83" t="s">
+        <v>293</v>
+      </c>
+      <c r="D83" t="s">
+        <v>257</v>
+      </c>
       <c r="F83" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="42">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="63">
       <c r="A84">
         <v>11633</v>
       </c>
       <c r="B84" t="s">
         <v>84</v>
       </c>
+      <c r="C84" t="s">
+        <v>270</v>
+      </c>
+      <c r="D84" t="s">
+        <v>257</v>
+      </c>
       <c r="F84" s="2" t="s">
-        <v>255</v>
+        <v>346</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="42">
@@ -3431,8 +3578,11 @@
       <c r="B85" t="s">
         <v>85</v>
       </c>
+      <c r="C85" t="s">
+        <v>266</v>
+      </c>
       <c r="F85" s="2" t="s">
-        <v>255</v>
+        <v>347</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="42">
@@ -3442,8 +3592,11 @@
       <c r="B86" t="s">
         <v>86</v>
       </c>
+      <c r="C86" t="s">
+        <v>270</v>
+      </c>
       <c r="F86" s="2" t="s">
-        <v>255</v>
+        <v>348</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="42">
@@ -3453,8 +3606,11 @@
       <c r="B87" t="s">
         <v>87</v>
       </c>
+      <c r="C87" t="s">
+        <v>270</v>
+      </c>
       <c r="F87" s="2" t="s">
-        <v>255</v>
+        <v>349</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="42">
@@ -3464,8 +3620,11 @@
       <c r="B88" t="s">
         <v>88</v>
       </c>
+      <c r="C88" t="s">
+        <v>270</v>
+      </c>
       <c r="F88" s="2" t="s">
-        <v>255</v>
+        <v>350</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="42">
@@ -3475,8 +3634,11 @@
       <c r="B89" t="s">
         <v>89</v>
       </c>
+      <c r="C89" t="s">
+        <v>270</v>
+      </c>
       <c r="F89" s="2" t="s">
-        <v>255</v>
+        <v>351</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="42">
@@ -3486,8 +3648,11 @@
       <c r="B90" t="s">
         <v>90</v>
       </c>
+      <c r="C90" t="s">
+        <v>257</v>
+      </c>
       <c r="F90" s="2" t="s">
-        <v>255</v>
+        <v>352</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="42">
@@ -3497,8 +3662,11 @@
       <c r="B91" t="s">
         <v>91</v>
       </c>
+      <c r="C91" t="s">
+        <v>257</v>
+      </c>
       <c r="F91" s="2" t="s">
-        <v>255</v>
+        <v>353</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="42">
@@ -3508,8 +3676,14 @@
       <c r="B92" t="s">
         <v>92</v>
       </c>
+      <c r="C92" t="s">
+        <v>257</v>
+      </c>
+      <c r="D92" t="s">
+        <v>264</v>
+      </c>
       <c r="F92" s="2" t="s">
-        <v>255</v>
+        <v>354</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="42">
@@ -3519,19 +3693,25 @@
       <c r="B93" t="s">
         <v>93</v>
       </c>
+      <c r="C93" t="s">
+        <v>266</v>
+      </c>
       <c r="F93" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="42">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="63">
       <c r="A94">
         <v>12644</v>
       </c>
       <c r="B94" t="s">
         <v>94</v>
       </c>
+      <c r="C94" t="s">
+        <v>257</v>
+      </c>
       <c r="F94" s="2" t="s">
-        <v>255</v>
+        <v>356</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="42">
@@ -3541,8 +3721,11 @@
       <c r="B95" t="s">
         <v>95</v>
       </c>
+      <c r="C95" t="s">
+        <v>270</v>
+      </c>
       <c r="F95" s="2" t="s">
-        <v>255</v>
+        <v>357</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="42">
@@ -3552,19 +3735,25 @@
       <c r="B96" t="s">
         <v>96</v>
       </c>
+      <c r="C96" t="s">
+        <v>359</v>
+      </c>
       <c r="F96" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="42">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="63">
       <c r="A97">
         <v>12769</v>
       </c>
       <c r="B97" t="s">
         <v>97</v>
       </c>
+      <c r="C97" t="s">
+        <v>266</v>
+      </c>
       <c r="F97" s="2" t="s">
-        <v>255</v>
+        <v>360</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="42">
@@ -3574,8 +3763,11 @@
       <c r="B98" t="s">
         <v>98</v>
       </c>
+      <c r="C98" t="s">
+        <v>270</v>
+      </c>
       <c r="F98" s="2" t="s">
-        <v>255</v>
+        <v>361</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="42">
@@ -3585,19 +3777,25 @@
       <c r="B99" t="s">
         <v>99</v>
       </c>
+      <c r="C99" t="s">
+        <v>257</v>
+      </c>
       <c r="F99" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="42">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="63">
       <c r="A100">
         <v>13023</v>
       </c>
       <c r="B100" t="s">
         <v>100</v>
       </c>
+      <c r="C100" t="s">
+        <v>257</v>
+      </c>
       <c r="F100" s="2" t="s">
-        <v>255</v>
+        <v>363</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="42">

--- a/satd_issue_dataset_Kotlin.xlsx
+++ b/satd_issue_dataset_Kotlin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD2AEAB-F068-B14D-8A5A-134E6553CEE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ACFF83D-1209-FE4A-94BD-FD68437B4972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14320" yWindow="-28300" windowWidth="33720" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="415">
   <si>
     <t>Issue</t>
   </si>
@@ -1377,6 +1377,266 @@
     <rPh sb="70" eb="72">
       <t xml:space="preserve">シュウセイ </t>
     </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]「スキャン」と「検索エンジン」のパディングに一貫性がない
+[Class]UIの改善</t>
+    <rPh sb="48" eb="50">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]検索ダイアログにコントラストを追加
+[Class]UIの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ブックマークを削除するためにスワイプを続けたいかどうかを調査する
+[Class]UIの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]検索エンジン プロバイダーのテスト
+[Class]テストの終了</t>
+    <rPh sb="38" eb="40">
+      <t xml:space="preserve">シュウリョウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ライブラリ リサイクラー アダプターのリファクタリング
+[Class]リファクタリング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]カスタム保存ログイン ツールバー ヘッダー (シェブロン フィルター付き) がリップルを遮断しました
+[Class]UIの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]l10n-uplift.py スクリプトの競合処理を改善
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]複数の a11y デリゲートを使用せずに複数のカスタム a11y 動作を実装する方法を調査
+[Class]機能の実装</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]トップボタンを削除するために履歴項目をリファクタリングする
+[Class]パフォーマンス，UIの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ETP Cookie 設定でハードコードされた文字列を置き換える
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]レポート サイトの問題がダーク モードで間違った色になる
+[Class]UIの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]非推奨の Kotlin Android Extensions コンパイラ プラグインを移行する
+[Class]非推奨への対応</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]すべての通知のロケール変更を処理する
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]DefaultToolbarMenuTest テストの失敗: java.lang.ClassCastException
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ブックマークの追加/編集項目を設計仕様に合わせて調整する
+[Class]UIの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]関数名が間違っている
+[Class]関数名の変更</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]非推奨の文字列を削除する
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]非推奨の「Autocomplete.LoginStorageDelegate」を Autocomplete.StorageDelegate で修正
+[Class]機能の修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ホーム画面の 3 点メニューのリファクタリング
+[Class]リファクタリング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]メインの 3 ドット メニューをリファクタリングする
+[Class]リファクタリング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ホームスクリーンメニューをテスト可能にする
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]鍵管理の改善
+[Class]セキュリティの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Security</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]文字列はハードコードされています
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]アプリケーションの起動時にビジュアル完了キューでロケールを復元する
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ログイン画面やアプリ内の機密情報が含まれるその他の場所には、SecureFragment を使用
+[Class]セキュリティーの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]保存されたログインに BiometricPromptPreferenceFragment を使用する
+[Class]セキュリティーの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Dispatchers.Default の現在の誤用を特定する
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]すでに出荷されている機能の FeatureFlags をクリーンアップする
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]NavController のさまざまなナビゲーション機能をクリーンアップする
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]最新の Robolectric/mockk でテストが失敗する
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テストで冗長なコルーチン ディスパッチャーを削除する
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]HistoryMenuItemTest.build menu itemsラムダをモックし、断続的な障害を引き起こします
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ホームの「すべて表示」ボタンを更新する
+[Class]UIの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テストの失敗 - プロキシをインスタンス化できません
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ホーム画面のセクション タイトルの折り返し
+[Class]UIの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ホームのセクション タイトルの書式設定
+[Class]UIの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ホーム ヘッダーのシステム フォントに合わせる
+[Class]UIの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]システム フォントと一致するようにホームのフォントを変更します
+[Class]UIの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ソース名なしで呼び出される THEN ソースが不明なメトリクス、ユース ケース、およびコールバックがトリガーされる
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ホーム上の要素間の一貫した間隔
+[Class]UIの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]wpandroid で利用可能な EventBus lib の 2 つのバージョン
+[Class]機能の統合</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]AndroidX に移行する
+[Class]OSの移行</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ストアでのコルーチンの GlobalScope の使用を削除
+[Class]不要な機能の削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]PostsListActivity から SiteModel への参照を削除
+[Class]不要な機能の削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]PostListButton を削除
+[Class]不要な機能の削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]フィーチャー イメージ ロジックを PostListItemViewHolder から ViewModel に移動
+[Class]機能の移行</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]PostListItemUploadStatus を削除
+[Class]不要な機能の削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]PostList: xml から optionsMenu を拡張する
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]EditPostActivity で mOriginalPost の使用状況を調査する
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]インストルメント化されたテストでの Kotlin クラスのより簡単なモッキング
+[Class]テストの改善</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -2347,8 +2607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F101" sqref="F101"/>
+    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C151" sqref="C151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -3805,8 +4065,11 @@
       <c r="B101" t="s">
         <v>101</v>
       </c>
+      <c r="C101" t="s">
+        <v>270</v>
+      </c>
       <c r="F101" s="2" t="s">
-        <v>255</v>
+        <v>364</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="42">
@@ -3816,8 +4079,11 @@
       <c r="B102" t="s">
         <v>102</v>
       </c>
+      <c r="C102" t="s">
+        <v>270</v>
+      </c>
       <c r="F102" s="2" t="s">
-        <v>255</v>
+        <v>365</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="42">
@@ -3827,8 +4093,11 @@
       <c r="B103" t="s">
         <v>103</v>
       </c>
+      <c r="C103" t="s">
+        <v>270</v>
+      </c>
       <c r="F103" s="2" t="s">
-        <v>255</v>
+        <v>366</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="42">
@@ -3838,8 +4107,11 @@
       <c r="B104" t="s">
         <v>104</v>
       </c>
+      <c r="C104" t="s">
+        <v>266</v>
+      </c>
       <c r="F104" s="2" t="s">
-        <v>255</v>
+        <v>367</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="42">
@@ -3849,19 +4121,25 @@
       <c r="B105" t="s">
         <v>105</v>
       </c>
+      <c r="C105" t="s">
+        <v>257</v>
+      </c>
       <c r="F105" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="42">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="63">
       <c r="A106">
         <v>16271</v>
       </c>
       <c r="B106" t="s">
         <v>106</v>
       </c>
+      <c r="C106" t="s">
+        <v>270</v>
+      </c>
       <c r="F106" s="2" t="s">
-        <v>255</v>
+        <v>369</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="42">
@@ -3871,19 +4149,25 @@
       <c r="B107" t="s">
         <v>107</v>
       </c>
+      <c r="C107" t="s">
+        <v>257</v>
+      </c>
       <c r="F107" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="42">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="63">
       <c r="A108">
         <v>16556</v>
       </c>
       <c r="B108" t="s">
         <v>108</v>
       </c>
+      <c r="C108" t="s">
+        <v>257</v>
+      </c>
       <c r="F108" s="2" t="s">
-        <v>255</v>
+        <v>371</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="42">
@@ -3893,8 +4177,14 @@
       <c r="B109" t="s">
         <v>109</v>
       </c>
+      <c r="C109" t="s">
+        <v>293</v>
+      </c>
+      <c r="D109" t="s">
+        <v>270</v>
+      </c>
       <c r="F109" s="2" t="s">
-        <v>255</v>
+        <v>372</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="42">
@@ -3904,8 +4194,11 @@
       <c r="B110" t="s">
         <v>110</v>
       </c>
+      <c r="C110" t="s">
+        <v>257</v>
+      </c>
       <c r="F110" s="2" t="s">
-        <v>255</v>
+        <v>373</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="42">
@@ -3915,8 +4208,11 @@
       <c r="B111" t="s">
         <v>111</v>
       </c>
+      <c r="C111" t="s">
+        <v>270</v>
+      </c>
       <c r="F111" s="2" t="s">
-        <v>255</v>
+        <v>374</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="42">
@@ -3926,8 +4222,11 @@
       <c r="B112" t="s">
         <v>112</v>
       </c>
+      <c r="C112" t="s">
+        <v>264</v>
+      </c>
       <c r="F112" s="2" t="s">
-        <v>255</v>
+        <v>375</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="42">
@@ -3937,8 +4236,11 @@
       <c r="B113" t="s">
         <v>113</v>
       </c>
+      <c r="C113" t="s">
+        <v>257</v>
+      </c>
       <c r="F113" s="2" t="s">
-        <v>255</v>
+        <v>376</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="42">
@@ -3948,8 +4250,11 @@
       <c r="B114" t="s">
         <v>114</v>
       </c>
+      <c r="C114" t="s">
+        <v>266</v>
+      </c>
       <c r="F114" s="2" t="s">
-        <v>255</v>
+        <v>377</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="42">
@@ -3959,8 +4264,11 @@
       <c r="B115" t="s">
         <v>115</v>
       </c>
+      <c r="C115" t="s">
+        <v>270</v>
+      </c>
       <c r="F115" s="2" t="s">
-        <v>255</v>
+        <v>378</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="42">
@@ -3970,8 +4278,11 @@
       <c r="B116" t="s">
         <v>116</v>
       </c>
+      <c r="C116" t="s">
+        <v>257</v>
+      </c>
       <c r="F116" s="2" t="s">
-        <v>255</v>
+        <v>379</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="42">
@@ -3981,19 +4292,25 @@
       <c r="B117" t="s">
         <v>117</v>
       </c>
+      <c r="C117" t="s">
+        <v>257</v>
+      </c>
       <c r="F117" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" ht="42">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="63">
       <c r="A118">
         <v>19080</v>
       </c>
       <c r="B118" t="s">
         <v>118</v>
       </c>
+      <c r="C118" t="s">
+        <v>257</v>
+      </c>
       <c r="F118" s="2" t="s">
-        <v>255</v>
+        <v>381</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="42">
@@ -4003,8 +4320,11 @@
       <c r="B119" t="s">
         <v>119</v>
       </c>
+      <c r="C119" t="s">
+        <v>257</v>
+      </c>
       <c r="F119" s="2" t="s">
-        <v>255</v>
+        <v>382</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="42">
@@ -4014,8 +4334,11 @@
       <c r="B120" t="s">
         <v>120</v>
       </c>
+      <c r="C120" t="s">
+        <v>257</v>
+      </c>
       <c r="F120" s="2" t="s">
-        <v>255</v>
+        <v>383</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="42">
@@ -4025,8 +4348,11 @@
       <c r="B121" t="s">
         <v>121</v>
       </c>
+      <c r="C121" t="s">
+        <v>257</v>
+      </c>
       <c r="F121" s="2" t="s">
-        <v>255</v>
+        <v>384</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="42">
@@ -4036,8 +4362,11 @@
       <c r="B122" t="s">
         <v>122</v>
       </c>
+      <c r="C122" t="s">
+        <v>386</v>
+      </c>
       <c r="F122" s="2" t="s">
-        <v>255</v>
+        <v>385</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="42">
@@ -4047,8 +4376,11 @@
       <c r="B123" t="s">
         <v>123</v>
       </c>
+      <c r="C123" t="s">
+        <v>257</v>
+      </c>
       <c r="F123" s="2" t="s">
-        <v>255</v>
+        <v>387</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="42">
@@ -4058,8 +4390,11 @@
       <c r="B124" t="s">
         <v>124</v>
       </c>
+      <c r="C124" t="s">
+        <v>257</v>
+      </c>
       <c r="F124" s="2" t="s">
-        <v>255</v>
+        <v>388</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="42">
@@ -4069,19 +4404,25 @@
       <c r="B125" t="s">
         <v>125</v>
       </c>
+      <c r="C125" t="s">
+        <v>386</v>
+      </c>
       <c r="F125" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" ht="42">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="63">
       <c r="A126">
         <v>19567</v>
       </c>
       <c r="B126" t="s">
         <v>126</v>
       </c>
+      <c r="C126" t="s">
+        <v>386</v>
+      </c>
       <c r="F126" s="2" t="s">
-        <v>255</v>
+        <v>389</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="42">
@@ -4091,8 +4432,11 @@
       <c r="B127" t="s">
         <v>127</v>
       </c>
+      <c r="C127" t="s">
+        <v>257</v>
+      </c>
       <c r="F127" s="2" t="s">
-        <v>255</v>
+        <v>391</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="42">
@@ -4102,8 +4446,11 @@
       <c r="B128" t="s">
         <v>128</v>
       </c>
+      <c r="C128" t="s">
+        <v>257</v>
+      </c>
       <c r="F128" s="2" t="s">
-        <v>255</v>
+        <v>392</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="42">
@@ -4113,8 +4460,11 @@
       <c r="B129" t="s">
         <v>129</v>
       </c>
+      <c r="C129" t="s">
+        <v>257</v>
+      </c>
       <c r="F129" s="2" t="s">
-        <v>255</v>
+        <v>393</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="42">
@@ -4124,8 +4474,11 @@
       <c r="B130" t="s">
         <v>130</v>
       </c>
+      <c r="C130" t="s">
+        <v>266</v>
+      </c>
       <c r="F130" s="2" t="s">
-        <v>255</v>
+        <v>394</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="42">
@@ -4135,19 +4488,25 @@
       <c r="B131" t="s">
         <v>131</v>
       </c>
+      <c r="C131" t="s">
+        <v>266</v>
+      </c>
       <c r="F131" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" ht="42">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="63">
       <c r="A132">
         <v>20627</v>
       </c>
       <c r="B132" t="s">
         <v>132</v>
       </c>
+      <c r="C132" t="s">
+        <v>266</v>
+      </c>
       <c r="F132" s="2" t="s">
-        <v>255</v>
+        <v>396</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="42">
@@ -4157,8 +4516,11 @@
       <c r="B133" t="s">
         <v>133</v>
       </c>
+      <c r="C133" t="s">
+        <v>270</v>
+      </c>
       <c r="F133" s="2" t="s">
-        <v>255</v>
+        <v>397</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="42">
@@ -4168,8 +4530,11 @@
       <c r="B134" t="s">
         <v>134</v>
       </c>
+      <c r="C134" t="s">
+        <v>266</v>
+      </c>
       <c r="F134" s="2" t="s">
-        <v>255</v>
+        <v>398</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="42">
@@ -4179,8 +4544,11 @@
       <c r="B135" t="s">
         <v>135</v>
       </c>
+      <c r="C135" t="s">
+        <v>270</v>
+      </c>
       <c r="F135" s="2" t="s">
-        <v>255</v>
+        <v>399</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="42">
@@ -4190,8 +4558,11 @@
       <c r="B136" t="s">
         <v>136</v>
       </c>
+      <c r="C136" t="s">
+        <v>270</v>
+      </c>
       <c r="F136" s="2" t="s">
-        <v>255</v>
+        <v>400</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="42">
@@ -4201,8 +4572,11 @@
       <c r="B137" t="s">
         <v>137</v>
       </c>
+      <c r="C137" t="s">
+        <v>270</v>
+      </c>
       <c r="F137" s="2" t="s">
-        <v>255</v>
+        <v>401</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="42">
@@ -4212,19 +4586,25 @@
       <c r="B138" t="s">
         <v>138</v>
       </c>
+      <c r="C138" t="s">
+        <v>270</v>
+      </c>
       <c r="F138" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" ht="42">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="63">
       <c r="A139">
         <v>21910</v>
       </c>
       <c r="B139" t="s">
         <v>139</v>
       </c>
+      <c r="C139" t="s">
+        <v>266</v>
+      </c>
       <c r="F139" s="2" t="s">
-        <v>255</v>
+        <v>403</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="42">
@@ -4234,8 +4614,11 @@
       <c r="B140" t="s">
         <v>140</v>
       </c>
+      <c r="C140" t="s">
+        <v>270</v>
+      </c>
       <c r="F140" s="2" t="s">
-        <v>255</v>
+        <v>404</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="42">
@@ -4245,8 +4628,11 @@
       <c r="B141" t="s">
         <v>141</v>
       </c>
+      <c r="C141" t="s">
+        <v>257</v>
+      </c>
       <c r="F141" s="2" t="s">
-        <v>255</v>
+        <v>405</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="42">
@@ -4256,8 +4642,11 @@
       <c r="B142" t="s">
         <v>142</v>
       </c>
+      <c r="C142" t="s">
+        <v>264</v>
+      </c>
       <c r="F142" s="2" t="s">
-        <v>255</v>
+        <v>406</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="42">
@@ -4267,8 +4656,11 @@
       <c r="B143" t="s">
         <v>143</v>
       </c>
+      <c r="C143" t="s">
+        <v>257</v>
+      </c>
       <c r="F143" s="2" t="s">
-        <v>255</v>
+        <v>407</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="42">
@@ -4278,8 +4670,11 @@
       <c r="B144" t="s">
         <v>144</v>
       </c>
+      <c r="C144" t="s">
+        <v>257</v>
+      </c>
       <c r="F144" s="2" t="s">
-        <v>255</v>
+        <v>408</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="42">
@@ -4289,19 +4684,25 @@
       <c r="B145" t="s">
         <v>145</v>
       </c>
+      <c r="C145" t="s">
+        <v>257</v>
+      </c>
       <c r="F145" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" ht="42">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="63">
       <c r="A146">
         <v>9639</v>
       </c>
       <c r="B146" t="s">
         <v>146</v>
       </c>
+      <c r="C146" t="s">
+        <v>257</v>
+      </c>
       <c r="F146" s="2" t="s">
-        <v>255</v>
+        <v>410</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="42">
@@ -4311,8 +4712,11 @@
       <c r="B147" t="s">
         <v>147</v>
       </c>
+      <c r="C147" t="s">
+        <v>257</v>
+      </c>
       <c r="F147" s="2" t="s">
-        <v>255</v>
+        <v>411</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="42">
@@ -4322,8 +4726,11 @@
       <c r="B148" t="s">
         <v>148</v>
       </c>
+      <c r="C148" t="s">
+        <v>257</v>
+      </c>
       <c r="F148" s="2" t="s">
-        <v>255</v>
+        <v>412</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="42">
@@ -4333,8 +4740,11 @@
       <c r="B149" t="s">
         <v>149</v>
       </c>
+      <c r="C149" t="s">
+        <v>257</v>
+      </c>
       <c r="F149" s="2" t="s">
-        <v>255</v>
+        <v>413</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="42">
@@ -4344,8 +4754,11 @@
       <c r="B150" t="s">
         <v>150</v>
       </c>
+      <c r="C150" t="s">
+        <v>266</v>
+      </c>
       <c r="F150" s="2" t="s">
-        <v>255</v>
+        <v>414</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="42">

--- a/satd_issue_dataset_Kotlin.xlsx
+++ b/satd_issue_dataset_Kotlin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ACFF83D-1209-FE4A-94BD-FD68437B4972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C67B43E1-B199-8E43-B530-7890253BA564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14320" yWindow="-28300" windowWidth="33720" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="468">
   <si>
     <t>Issue</t>
   </si>
@@ -1636,6 +1636,298 @@
   </si>
   <si>
     <t>[Content]インストルメント化されたテストでの Kotlin クラスのより簡単なモッキング
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]OnEditorEvent の抽出とリファクタリング
+[Class]リファクタリング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]UploadUtils.getErrorMessageResIdFromPostError の単体テストを追加
+[Class]テストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]PostSettingsUtilsTest をリファクタリングして決定論的にする
+[Class]リファクタリング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]リーダー: 空の画面 - [検出] ボタンが機能しない
+[Class]UIの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ユーザーが [投稿をブックマーク] をクリックするとクラッシュする
+[Class]UIの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]InstallationReferrerServiceLogic.onInstallReferrerSetupFinished の DeadObjectException
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ReaderImprovements フェーズ 2 の欠落している単体テストを追加
+[Class]テストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]サイト確認プレビューから古いコードの一部を削除する機能を調査する
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]リリースされた機能を分析する
+[Class]不要な機能の削除</t>
+    <rPh sb="31" eb="33">
+      <t xml:space="preserve">フヨウナ </t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Tenor 機能構成と非推奨の Giphy コードを削除する
+[Class]非推奨のコードの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Gutenberg のビルド構成フラグへの言及を削除
+[Class]ビルドの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Build</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ホームページ ピッカー フラグを削除する
+[Class]不要なフラグの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]統合ログイン/サインアップ フラグを削除する
+[Class]不要なコードの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]AnyFileUploadフラグを削除します
+[Class]不要なフラグの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ログイン ライブラリから未使用のコードを削除する
+[Class]不要なコードの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]統合ピッカー フラグを削除する
+[Class]不要なフラグの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]WP Stories 機能フラグを削除
+[Class]不要なフラグの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]コメントのフォロー/フォロー解除フラグを削除する
+[Class]不要なフラグの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]DB からのデータを使用してレイアウト ピッカーの実装を改善する
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ベースラインの糸くずの警告を解決して削除する
+[Class]警告の改善</t>
+    <rPh sb="39" eb="41">
+      <t xml:space="preserve">ケイコクノカイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]リーク検出を調べる
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>テストの一部でメモリリークの検出</t>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">イチブデ </t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t xml:space="preserve">ケンシュツ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]アプリを SDK 28 に更新する
+[Class]OSの更新</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]データ保護の使用を改善する
+[Class]セキュリティの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]FingerprintManagerを調査し、StartとStopアクションを排除する。
+[Class]機能の置き換え</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]CommonFragmentをFragmentに名称変更します
+[Class]名前の変更</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ContextStoreの作成
+[Class]関数の作成</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]PasswordRevealアクションを実装する
+[Class]機能の実装</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テスト範囲の拡大: FingerprintStore
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テスト範囲の拡大: RoutePresenterテストの改善
+[Class]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Android コンポーネントを 0.35.1 にアップグレードする
+[Class]コンポーネントの更新</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]PR #144 のルーティングによる技術的負債を修正
+[Class]UIの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]リセットしても DataStoreSupport 暗号化キーがクリアされない
+[Class]機能の改善</t>
+    <rPh sb="55" eb="57">
+      <t xml:space="preserve">キノウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>セキュリティ上の懸念はない</t>
+    <rPh sb="6" eb="7">
+      <t xml:space="preserve">ジョウノ </t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t xml:space="preserve">ケネンハ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]自動ロックによる技術的負債に対処する
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]DataStore で例外を処理する
+[Class]例外処理の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]AccountStore ネットワーク接続チェックを削除する
+[Class]不要なエラー処理の削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]LockboxAutofillServiceからonFailureを削除
+[Class]非推奨な機能の削除</t>
+    <rPh sb="53" eb="56">
+      <t xml:space="preserve">ヒスイショウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content](autofill) AuthPresenter の単体テストを具体化する
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]FingerprintAuthAction はよりフラットにする必要があります
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]不安定な DataStoreTest ケースを調べる
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]自動入力とアプリの両方が実行されている場合、指紋ダイアログが 2 回表示されます
+[Class]バグの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]AutofillLockedPresenterとLockedPresenterをマージ
+[Class]機能の統合</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]RouteStore のテストを作成する
+[Class]テストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]AutofillFilterPresenterとFilterPresenterをマージ
+[Class]機能の統合</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]RoutePresenterとAutofillRoutePresenterをマージ
+[Class]機能の統合</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Gradle の依存関係を更新し、重大な変更をリファクタリングする
+[Class]リファクタリング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]最初に 1 つのエントリの削除をキャンセルした場合、削除ダイアログは表示されません
+[Class]バグの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]BackTo ルート アクションを追加する
+[Class]機能の追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ビューの構築時にダイアログ ボタンの色を選択する
+[Class]不要な機能の削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]SavedMatrix 結果のテストを追加
+[Class]テストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]coveralls.io コード カバレッジのセットアップ
 [Class]テストの改善</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -2607,8 +2899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C151" sqref="C151"/>
+    <sheetView tabSelected="1" topLeftCell="A190" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C200" sqref="C200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -4768,8 +5060,11 @@
       <c r="B151" t="s">
         <v>151</v>
       </c>
+      <c r="C151" t="s">
+        <v>257</v>
+      </c>
       <c r="F151" s="2" t="s">
-        <v>255</v>
+        <v>415</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="42">
@@ -4779,8 +5074,11 @@
       <c r="B152" t="s">
         <v>152</v>
       </c>
+      <c r="C152" t="s">
+        <v>266</v>
+      </c>
       <c r="F152" s="2" t="s">
-        <v>255</v>
+        <v>416</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="42">
@@ -4790,8 +5088,11 @@
       <c r="B153" t="s">
         <v>153</v>
       </c>
+      <c r="C153" t="s">
+        <v>257</v>
+      </c>
       <c r="F153" s="2" t="s">
-        <v>255</v>
+        <v>417</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="42">
@@ -4801,8 +5102,11 @@
       <c r="B154" t="s">
         <v>154</v>
       </c>
+      <c r="C154" t="s">
+        <v>270</v>
+      </c>
       <c r="F154" s="2" t="s">
-        <v>255</v>
+        <v>418</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="42">
@@ -4812,19 +5116,25 @@
       <c r="B155" t="s">
         <v>155</v>
       </c>
+      <c r="C155" t="s">
+        <v>270</v>
+      </c>
       <c r="F155" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" ht="42">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="63">
       <c r="A156">
         <v>12465</v>
       </c>
       <c r="B156" t="s">
         <v>156</v>
       </c>
+      <c r="C156" t="s">
+        <v>257</v>
+      </c>
       <c r="F156" s="2" t="s">
-        <v>255</v>
+        <v>420</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="42">
@@ -4834,8 +5144,11 @@
       <c r="B157" t="s">
         <v>157</v>
       </c>
+      <c r="C157" t="s">
+        <v>266</v>
+      </c>
       <c r="F157" s="2" t="s">
-        <v>255</v>
+        <v>421</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="42">
@@ -4845,8 +5158,11 @@
       <c r="B158" t="s">
         <v>158</v>
       </c>
+      <c r="C158" t="s">
+        <v>257</v>
+      </c>
       <c r="F158" s="2" t="s">
-        <v>255</v>
+        <v>422</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="42">
@@ -4856,8 +5172,11 @@
       <c r="B159" t="s">
         <v>159</v>
       </c>
+      <c r="C159" t="s">
+        <v>257</v>
+      </c>
       <c r="F159" s="2" t="s">
-        <v>255</v>
+        <v>423</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="42">
@@ -4867,8 +5186,14 @@
       <c r="B160" t="s">
         <v>160</v>
       </c>
+      <c r="C160" t="s">
+        <v>264</v>
+      </c>
+      <c r="D160" t="s">
+        <v>257</v>
+      </c>
       <c r="F160" s="2" t="s">
-        <v>255</v>
+        <v>424</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="42">
@@ -4878,8 +5203,11 @@
       <c r="B161" t="s">
         <v>161</v>
       </c>
+      <c r="C161" t="s">
+        <v>426</v>
+      </c>
       <c r="F161" s="2" t="s">
-        <v>255</v>
+        <v>425</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="42">
@@ -4889,8 +5217,11 @@
       <c r="B162" t="s">
         <v>162</v>
       </c>
+      <c r="C162" t="s">
+        <v>257</v>
+      </c>
       <c r="F162" s="2" t="s">
-        <v>255</v>
+        <v>427</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="42">
@@ -4900,8 +5231,11 @@
       <c r="B163" t="s">
         <v>163</v>
       </c>
+      <c r="C163" t="s">
+        <v>257</v>
+      </c>
       <c r="F163" s="2" t="s">
-        <v>255</v>
+        <v>428</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="42">
@@ -4911,8 +5245,11 @@
       <c r="B164" t="s">
         <v>164</v>
       </c>
+      <c r="C164" t="s">
+        <v>257</v>
+      </c>
       <c r="F164" s="2" t="s">
-        <v>255</v>
+        <v>429</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="42">
@@ -4922,8 +5259,11 @@
       <c r="B165" t="s">
         <v>165</v>
       </c>
+      <c r="C165" t="s">
+        <v>257</v>
+      </c>
       <c r="F165" s="2" t="s">
-        <v>255</v>
+        <v>430</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="42">
@@ -4933,8 +5273,11 @@
       <c r="B166" t="s">
         <v>166</v>
       </c>
+      <c r="C166" t="s">
+        <v>257</v>
+      </c>
       <c r="F166" s="2" t="s">
-        <v>255</v>
+        <v>431</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="42">
@@ -4944,8 +5287,11 @@
       <c r="B167" t="s">
         <v>167</v>
       </c>
+      <c r="C167" t="s">
+        <v>257</v>
+      </c>
       <c r="F167" s="2" t="s">
-        <v>255</v>
+        <v>432</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="42">
@@ -4955,8 +5301,11 @@
       <c r="B168" t="s">
         <v>168</v>
       </c>
+      <c r="C168" t="s">
+        <v>257</v>
+      </c>
       <c r="F168" s="2" t="s">
-        <v>255</v>
+        <v>433</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="42">
@@ -4966,8 +5315,11 @@
       <c r="B169" t="s">
         <v>169</v>
       </c>
+      <c r="C169" t="s">
+        <v>257</v>
+      </c>
       <c r="F169" s="2" t="s">
-        <v>255</v>
+        <v>434</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="42">
@@ -4977,8 +5329,11 @@
       <c r="B170" t="s">
         <v>170</v>
       </c>
+      <c r="C170" t="s">
+        <v>257</v>
+      </c>
       <c r="F170" s="2" t="s">
-        <v>255</v>
+        <v>435</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="42">
@@ -4988,8 +5343,14 @@
       <c r="B171" t="s">
         <v>171</v>
       </c>
+      <c r="C171" t="s">
+        <v>266</v>
+      </c>
+      <c r="E171" t="s">
+        <v>437</v>
+      </c>
       <c r="F171" s="2" t="s">
-        <v>255</v>
+        <v>436</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="42">
@@ -4999,8 +5360,11 @@
       <c r="B172" t="s">
         <v>172</v>
       </c>
+      <c r="C172" t="s">
+        <v>264</v>
+      </c>
       <c r="F172" s="2" t="s">
-        <v>255</v>
+        <v>438</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="42">
@@ -5010,8 +5374,11 @@
       <c r="B173" t="s">
         <v>173</v>
       </c>
+      <c r="C173" t="s">
+        <v>386</v>
+      </c>
       <c r="F173" s="2" t="s">
-        <v>255</v>
+        <v>439</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="42">
@@ -5021,8 +5388,11 @@
       <c r="B174" t="s">
         <v>174</v>
       </c>
+      <c r="C174" t="s">
+        <v>257</v>
+      </c>
       <c r="F174" s="2" t="s">
-        <v>255</v>
+        <v>440</v>
       </c>
     </row>
     <row r="175" spans="1:6" ht="42">
@@ -5032,8 +5402,11 @@
       <c r="B175" t="s">
         <v>175</v>
       </c>
+      <c r="C175" t="s">
+        <v>257</v>
+      </c>
       <c r="F175" s="2" t="s">
-        <v>255</v>
+        <v>441</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="42">
@@ -5043,8 +5416,11 @@
       <c r="B176" t="s">
         <v>176</v>
       </c>
+      <c r="C176" t="s">
+        <v>257</v>
+      </c>
       <c r="F176" s="2" t="s">
-        <v>255</v>
+        <v>442</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="42">
@@ -5054,8 +5430,11 @@
       <c r="B177" t="s">
         <v>177</v>
       </c>
+      <c r="C177" t="s">
+        <v>257</v>
+      </c>
       <c r="F177" s="2" t="s">
-        <v>255</v>
+        <v>443</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="42">
@@ -5065,8 +5444,11 @@
       <c r="B178" t="s">
         <v>178</v>
       </c>
+      <c r="C178" t="s">
+        <v>266</v>
+      </c>
       <c r="F178" s="2" t="s">
-        <v>255</v>
+        <v>444</v>
       </c>
     </row>
     <row r="179" spans="1:6" ht="42">
@@ -5076,8 +5458,11 @@
       <c r="B179" t="s">
         <v>179</v>
       </c>
+      <c r="C179" t="s">
+        <v>266</v>
+      </c>
       <c r="F179" s="2" t="s">
-        <v>255</v>
+        <v>445</v>
       </c>
     </row>
     <row r="180" spans="1:6" ht="42">
@@ -5087,8 +5472,11 @@
       <c r="B180" t="s">
         <v>180</v>
       </c>
+      <c r="C180" t="s">
+        <v>264</v>
+      </c>
       <c r="F180" s="2" t="s">
-        <v>255</v>
+        <v>446</v>
       </c>
     </row>
     <row r="181" spans="1:6" ht="42">
@@ -5098,8 +5486,11 @@
       <c r="B181" t="s">
         <v>181</v>
       </c>
+      <c r="C181" t="s">
+        <v>270</v>
+      </c>
       <c r="F181" s="2" t="s">
-        <v>255</v>
+        <v>447</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="42">
@@ -5109,8 +5500,14 @@
       <c r="B182" t="s">
         <v>182</v>
       </c>
+      <c r="C182" t="s">
+        <v>257</v>
+      </c>
+      <c r="E182" t="s">
+        <v>449</v>
+      </c>
       <c r="F182" s="2" t="s">
-        <v>255</v>
+        <v>448</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="42">
@@ -5120,8 +5517,11 @@
       <c r="B183" t="s">
         <v>183</v>
       </c>
+      <c r="C183" t="s">
+        <v>257</v>
+      </c>
       <c r="F183" s="2" t="s">
-        <v>255</v>
+        <v>450</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="42">
@@ -5131,8 +5531,11 @@
       <c r="B184" t="s">
         <v>184</v>
       </c>
+      <c r="C184" t="s">
+        <v>257</v>
+      </c>
       <c r="F184" s="2" t="s">
-        <v>255</v>
+        <v>451</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="42">
@@ -5142,8 +5545,11 @@
       <c r="B185" t="s">
         <v>185</v>
       </c>
+      <c r="C185" t="s">
+        <v>257</v>
+      </c>
       <c r="F185" s="2" t="s">
-        <v>255</v>
+        <v>452</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="42">
@@ -5153,8 +5559,11 @@
       <c r="B186" t="s">
         <v>186</v>
       </c>
+      <c r="C186" t="s">
+        <v>264</v>
+      </c>
       <c r="F186" s="2" t="s">
-        <v>255</v>
+        <v>453</v>
       </c>
     </row>
     <row r="187" spans="1:6" ht="42">
@@ -5164,8 +5573,11 @@
       <c r="B187" t="s">
         <v>187</v>
       </c>
+      <c r="C187" t="s">
+        <v>266</v>
+      </c>
       <c r="F187" s="2" t="s">
-        <v>255</v>
+        <v>454</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="42">
@@ -5175,8 +5587,11 @@
       <c r="B188" t="s">
         <v>188</v>
       </c>
+      <c r="C188" t="s">
+        <v>257</v>
+      </c>
       <c r="F188" s="2" t="s">
-        <v>255</v>
+        <v>455</v>
       </c>
     </row>
     <row r="189" spans="1:6" ht="42">
@@ -5186,19 +5601,28 @@
       <c r="B189" t="s">
         <v>189</v>
       </c>
+      <c r="C189" t="s">
+        <v>266</v>
+      </c>
       <c r="F189" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" ht="42">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" ht="63">
       <c r="A190">
         <v>478</v>
       </c>
       <c r="B190" t="s">
         <v>190</v>
       </c>
+      <c r="C190" t="s">
+        <v>257</v>
+      </c>
+      <c r="D190" t="s">
+        <v>270</v>
+      </c>
       <c r="F190" s="2" t="s">
-        <v>255</v>
+        <v>457</v>
       </c>
     </row>
     <row r="191" spans="1:6" ht="42">
@@ -5208,8 +5632,11 @@
       <c r="B191" t="s">
         <v>191</v>
       </c>
+      <c r="C191" t="s">
+        <v>257</v>
+      </c>
       <c r="F191" s="2" t="s">
-        <v>255</v>
+        <v>458</v>
       </c>
     </row>
     <row r="192" spans="1:6" ht="42">
@@ -5219,8 +5646,11 @@
       <c r="B192" t="s">
         <v>192</v>
       </c>
+      <c r="C192" t="s">
+        <v>266</v>
+      </c>
       <c r="F192" s="2" t="s">
-        <v>255</v>
+        <v>459</v>
       </c>
     </row>
     <row r="193" spans="1:6" ht="42">
@@ -5230,8 +5660,11 @@
       <c r="B193" t="s">
         <v>193</v>
       </c>
+      <c r="C193" t="s">
+        <v>257</v>
+      </c>
       <c r="F193" s="2" t="s">
-        <v>255</v>
+        <v>460</v>
       </c>
     </row>
     <row r="194" spans="1:6" ht="42">
@@ -5241,8 +5674,11 @@
       <c r="B194" t="s">
         <v>194</v>
       </c>
+      <c r="C194" t="s">
+        <v>257</v>
+      </c>
       <c r="F194" s="2" t="s">
-        <v>255</v>
+        <v>461</v>
       </c>
     </row>
     <row r="195" spans="1:6" ht="42">
@@ -5252,19 +5688,25 @@
       <c r="B195" t="s">
         <v>195</v>
       </c>
+      <c r="C195" t="s">
+        <v>257</v>
+      </c>
       <c r="F195" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" ht="42">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" ht="63">
       <c r="A196">
         <v>807</v>
       </c>
       <c r="B196" t="s">
         <v>196</v>
       </c>
+      <c r="C196" t="s">
+        <v>257</v>
+      </c>
       <c r="F196" s="2" t="s">
-        <v>255</v>
+        <v>463</v>
       </c>
     </row>
     <row r="197" spans="1:6" ht="42">
@@ -5274,8 +5716,11 @@
       <c r="B197" t="s">
         <v>197</v>
       </c>
+      <c r="C197" t="s">
+        <v>257</v>
+      </c>
       <c r="F197" s="2" t="s">
-        <v>255</v>
+        <v>464</v>
       </c>
     </row>
     <row r="198" spans="1:6" ht="42">
@@ -5285,8 +5730,11 @@
       <c r="B198" t="s">
         <v>198</v>
       </c>
+      <c r="C198" t="s">
+        <v>257</v>
+      </c>
       <c r="F198" s="2" t="s">
-        <v>255</v>
+        <v>465</v>
       </c>
     </row>
     <row r="199" spans="1:6" ht="42">
@@ -5296,8 +5744,11 @@
       <c r="B199" t="s">
         <v>199</v>
       </c>
+      <c r="C199" t="s">
+        <v>266</v>
+      </c>
       <c r="F199" s="2" t="s">
-        <v>255</v>
+        <v>466</v>
       </c>
     </row>
     <row r="200" spans="1:6" ht="42">
@@ -5307,8 +5758,11 @@
       <c r="B200" t="s">
         <v>200</v>
       </c>
+      <c r="C200" t="s">
+        <v>266</v>
+      </c>
       <c r="F200" s="2" t="s">
-        <v>255</v>
+        <v>467</v>
       </c>
     </row>
     <row r="201" spans="1:6" ht="42">
